--- a/办公/六月份/第三周/设计自助机情况报表.xlsx
+++ b/办公/六月份/第三周/设计自助机情况报表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22192" windowHeight="9855"/>
+    <workbookView windowWidth="27922" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="第一版" sheetId="1" r:id="rId1"/>
+    <sheet name="第二版" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,6 +25,122 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="37">
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>存放地点</t>
+  </si>
+  <si>
+    <t>所有权</t>
+  </si>
+  <si>
+    <t>布设地点</t>
+  </si>
+  <si>
+    <t>数据时间</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>个人机</t>
+  </si>
+  <si>
+    <t>企业机</t>
+  </si>
+  <si>
+    <t>一体机</t>
+  </si>
+  <si>
+    <t>非县域</t>
+  </si>
+  <si>
+    <t>县域数量</t>
+  </si>
+  <si>
+    <t>金融机构</t>
+  </si>
+  <si>
+    <t>人行</t>
+  </si>
+  <si>
+    <t>人民人行</t>
+  </si>
+  <si>
+    <t>其他地方</t>
+  </si>
+  <si>
+    <t>总数</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>2025-06</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>大类</t>
+  </si>
+  <si>
+    <t>小类</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>0（功能）</t>
+  </si>
+  <si>
+    <t>0（个人机）</t>
+  </si>
+  <si>
+    <t>1（企业机）</t>
+  </si>
+  <si>
+    <t>2（一体机）</t>
+  </si>
+  <si>
+    <t>1（所有权）</t>
+  </si>
+  <si>
+    <t>0(金融机构)</t>
+  </si>
+  <si>
+    <t>1(人行)</t>
+  </si>
+  <si>
+    <t>2（存放地点）</t>
+  </si>
+  <si>
+    <t>0（非县域）</t>
+  </si>
+  <si>
+    <t>1（县域数量）</t>
+  </si>
+  <si>
+    <t>3（布设地点）</t>
+  </si>
+  <si>
+    <t>0（人民银行）</t>
+  </si>
+  <si>
+    <t>1（金融机构）</t>
+  </si>
+  <si>
+    <t>2（其他地方）</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -187,12 +304,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -513,7 +636,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,16 +660,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -555,90 +678,123 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,14 +1329,808 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="2" max="2" width="6.86725663716814" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" s="5"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10">
+        <v>40</v>
+      </c>
+      <c r="G3" s="10">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10">
+        <v>22</v>
+      </c>
+      <c r="I3" s="10">
+        <v>25</v>
+      </c>
+      <c r="J3" s="10">
+        <v>7</v>
+      </c>
+      <c r="K3" s="10">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10">
+        <v>25</v>
+      </c>
+      <c r="M3" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10">
+        <v>38</v>
+      </c>
+      <c r="G4" s="10">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10">
+        <v>21</v>
+      </c>
+      <c r="I4" s="10">
+        <v>24</v>
+      </c>
+      <c r="J4" s="10">
+        <v>7</v>
+      </c>
+      <c r="K4" s="10">
+        <v>21</v>
+      </c>
+      <c r="L4" s="10">
+        <v>24</v>
+      </c>
+      <c r="M4" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10">
+        <v>35</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="10">
+        <v>18</v>
+      </c>
+      <c r="I5" s="10">
+        <v>21</v>
+      </c>
+      <c r="J5" s="10">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10">
+        <v>18</v>
+      </c>
+      <c r="L5" s="10">
+        <v>21</v>
+      </c>
+      <c r="M5" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="5"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.24778761061947" customWidth="1"/>
+    <col min="2" max="2" width="5.38938053097345" customWidth="1"/>
+    <col min="3" max="3" width="14.5663716814159" customWidth="1"/>
+    <col min="4" max="4" width="12.5132743362832" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.38938053097345" customWidth="1"/>
+    <col min="6" max="7" width="9.02654867256637" style="3"/>
+    <col min="8" max="8" width="14.8938053097345" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.9469026548673" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.02654867256637" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="8">
+        <v>12</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
